--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
